--- a/HAIMETA_data_driver_framework/test_data/Text_2_image_test_cases_P.xlsx
+++ b/HAIMETA_data_driver_framework/test_data/Text_2_image_test_cases_P.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="814" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="814" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="52">
   <si>
     <t>步骤</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>标题：文生图-纹身创作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_the_certain_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_xpath=PHOTO_ALBUM_SECTION_BUTTON_XPATH;button_xpath=CHINESE_AESTHETICS_UNDER_LIFE_BUTTON_XPATH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,10 +265,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,6 +277,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,7 +564,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,65 +576,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -631,23 +643,23 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -656,12 +668,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -675,7 +687,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -689,7 +701,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -698,56 +710,56 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -762,12 +774,12 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -788,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
@@ -801,65 +813,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -868,23 +880,23 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -893,12 +905,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -912,7 +924,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -926,7 +938,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -935,56 +947,56 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -999,12 +1011,12 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1037,65 +1049,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1104,23 +1116,23 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1129,12 +1141,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1148,7 +1160,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1162,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1171,56 +1183,56 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1235,12 +1247,12 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1273,65 +1285,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1340,23 +1352,23 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1365,12 +1377,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1384,7 +1396,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1398,7 +1410,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1407,56 +1419,56 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1471,12 +1483,12 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1493,6 +1505,242 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="3" max="3" width="93.25" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1509,65 +1757,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1576,23 +1824,23 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1601,12 +1849,12 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1620,7 +1868,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1634,7 +1882,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1643,56 +1891,56 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1707,248 +1955,12 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
-    <col min="3" max="3" width="93.25" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1981,65 +1993,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2048,12 +2060,12 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2062,12 +2074,12 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2081,7 +2093,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2095,7 +2107,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2104,56 +2116,56 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2168,12 +2180,12 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2181,7 +2193,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2196,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2209,65 +2221,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2276,12 +2288,12 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2290,12 +2302,12 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2309,7 +2321,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2323,7 +2335,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2332,56 +2344,56 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2396,12 +2408,12 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2409,7 +2421,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
